--- a/Excel/本地化数据_地图互动物体.xlsx
+++ b/Excel/本地化数据_地图互动物体.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tndhk\heros\end2\T\T\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA8CE0E-35BA-4CDA-A075-CCE8356CB85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LocData@Info" sheetId="1" r:id="rId1"/>
     <sheet name="_原始数据" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="407">
   <si>
     <t>备注</t>
   </si>
@@ -78,7 +84,7 @@
     <t>木製箱子</t>
   </si>
   <si>
-    <t>Wooden Box</t>
+    <t>나무 상자</t>
   </si>
   <si>
     <t>building_劈柴堆</t>
@@ -87,7 +93,7 @@
     <t>劈柴堆</t>
   </si>
   <si>
-    <t>Chop firewood pile</t>
+    <t>벽시퇴</t>
   </si>
   <si>
     <t>building_藤筐</t>
@@ -96,7 +102,7 @@
     <t>藤筐</t>
   </si>
   <si>
-    <t>Rattan basket</t>
+    <t>등 광주리</t>
   </si>
   <si>
     <t>building_水盆</t>
@@ -105,7 +111,7 @@
     <t>水盆</t>
   </si>
   <si>
-    <t>Water basin</t>
+    <t>물통</t>
   </si>
   <si>
     <t>building_陶土盆</t>
@@ -114,7 +120,7 @@
     <t>陶土盆</t>
   </si>
   <si>
-    <t>Earthenware basin</t>
+    <t>토기 대야</t>
   </si>
   <si>
     <t>building_水桶</t>
@@ -123,7 +129,7 @@
     <t>水桶</t>
   </si>
   <si>
-    <t>Bucket</t>
+    <t>양동이</t>
   </si>
   <si>
     <t>building_木柴堆</t>
@@ -132,7 +138,7 @@
     <t>木柴堆</t>
   </si>
   <si>
-    <t>Firewood pile</t>
+    <t>목시퇴</t>
   </si>
   <si>
     <t>building_竹筐</t>
@@ -141,7 +147,7 @@
     <t>竹筐</t>
   </si>
   <si>
-    <t>Bamboo basket</t>
+    <t>대나무 광주리</t>
   </si>
   <si>
     <t>building_木盒</t>
@@ -150,7 +156,7 @@
     <t>木盒</t>
   </si>
   <si>
-    <t>Wooden box</t>
+    <t>목합</t>
   </si>
   <si>
     <t>building_板车</t>
@@ -162,7 +168,7 @@
     <t>板車</t>
   </si>
   <si>
-    <t>Pallet truck</t>
+    <t>판차</t>
   </si>
   <si>
     <t>building_百年老枯树</t>
@@ -174,7 +180,7 @@
     <t>百年老枯樹</t>
   </si>
   <si>
-    <t>A century old withered tree</t>
+    <t>100년 된 시든 나무</t>
   </si>
   <si>
     <t>building_简陋的木桌</t>
@@ -186,7 +192,7 @@
     <t>簡陋的木桌</t>
   </si>
   <si>
-    <t>A rudimentary wooden table</t>
+    <t>소박한 나무 탁자</t>
   </si>
   <si>
     <t>building_坛子</t>
@@ -198,7 +204,7 @@
     <t>罈子</t>
   </si>
   <si>
-    <t>Jar</t>
+    <t>항아리</t>
   </si>
   <si>
     <t>building_晾晒架子</t>
@@ -210,7 +216,7 @@
     <t>晾曬架子</t>
   </si>
   <si>
-    <t>Air drying rack</t>
+    <t>공기 건조 선반</t>
   </si>
   <si>
     <t>building_装稻草的布袋</t>
@@ -222,7 +228,7 @@
     <t>裝稻草的布袋</t>
   </si>
   <si>
-    <t>A cloth bag containing straw</t>
+    <t>밀짚가방</t>
   </si>
   <si>
     <t>building_兽皮架</t>
@@ -234,7 +240,7 @@
     <t>獸皮架</t>
   </si>
   <si>
-    <t>Animal skin rack</t>
+    <t>동물 가죽 선반</t>
   </si>
   <si>
     <t>building_树桩</t>
@@ -246,7 +252,7 @@
     <t>樹樁</t>
   </si>
   <si>
-    <t>Stump</t>
+    <t>그루터기</t>
   </si>
   <si>
     <t>building_简陋的木凳</t>
@@ -258,7 +264,7 @@
     <t>簡陋的木凳</t>
   </si>
   <si>
-    <t>A rudimentary wooden stool</t>
+    <t>소박한 나무 의자</t>
   </si>
   <si>
     <t>building_晾衣架</t>
@@ -267,7 +273,7 @@
     <t>晾衣架</t>
   </si>
   <si>
-    <t>Clothes hanger</t>
+    <t>옷걸이</t>
   </si>
   <si>
     <t>building_陶土罐</t>
@@ -276,7 +282,7 @@
     <t>陶土罐</t>
   </si>
   <si>
-    <t>Clay jar</t>
+    <t>점토 항아리</t>
   </si>
   <si>
     <t>building_鸡窝</t>
@@ -288,7 +294,7 @@
     <t>雞窩</t>
   </si>
   <si>
-    <t>Chicken coop</t>
+    <t>닭장</t>
   </si>
   <si>
     <t>building_石磨</t>
@@ -297,7 +303,7 @@
     <t>石磨</t>
   </si>
   <si>
-    <t>Stone mill</t>
+    <t>맷돌</t>
   </si>
   <si>
     <t>building_箭垛</t>
@@ -306,7 +312,7 @@
     <t>箭垛</t>
   </si>
   <si>
-    <t>Arrow crib</t>
+    <t>흉벽</t>
   </si>
   <si>
     <t>building_鱼篓</t>
@@ -318,7 +324,7 @@
     <t>魚簍</t>
   </si>
   <si>
-    <t>Fish basket</t>
+    <t>생선 바구니</t>
   </si>
   <si>
     <t>building_土地庙</t>
@@ -330,7 +336,7 @@
     <t>土地廟</t>
   </si>
   <si>
-    <t>Tudi Temple</t>
+    <t>토지묘</t>
   </si>
   <si>
     <t>building_面袋</t>
@@ -339,7 +345,7 @@
     <t>面袋</t>
   </si>
   <si>
-    <t>Noodle bag</t>
+    <t>국수 가방</t>
   </si>
   <si>
     <t>building_柜台</t>
@@ -351,7 +357,7 @@
     <t>櫃檯</t>
   </si>
   <si>
-    <t>Counter</t>
+    <t>카운터</t>
   </si>
   <si>
     <t>building_货架</t>
@@ -363,7 +369,7 @@
     <t>貨架</t>
   </si>
   <si>
-    <t>Shelves</t>
+    <t>선반</t>
   </si>
   <si>
     <t>building_矮木桌</t>
@@ -372,7 +378,7 @@
     <t>矮木桌</t>
   </si>
   <si>
-    <t>Low wooden table</t>
+    <t>낮은 나무 탁자</t>
   </si>
   <si>
     <t>building_古董架</t>
@@ -381,7 +387,7 @@
     <t>古董架</t>
   </si>
   <si>
-    <t>Antique shelf</t>
+    <t>골동품 선반</t>
   </si>
   <si>
     <t>building_石雕盆景</t>
@@ -390,7 +396,7 @@
     <t>石雕盆景</t>
   </si>
   <si>
-    <t>Stone carving bonsai</t>
+    <t>석조분경</t>
   </si>
   <si>
     <t>building_画缸</t>
@@ -402,7 +408,7 @@
     <t>畫缸</t>
   </si>
   <si>
-    <t>Painting cylinder</t>
+    <t>그림 항아리</t>
   </si>
   <si>
     <t>building_杂书堆</t>
@@ -414,7 +420,7 @@
     <t>雜書堆</t>
   </si>
   <si>
-    <t>Miscellaneous book pile</t>
+    <t>잡서 더미</t>
   </si>
   <si>
     <t>building_精致的书柜</t>
@@ -426,7 +432,7 @@
     <t>精緻的書櫃</t>
   </si>
   <si>
-    <t>Exquisite Bookcase</t>
+    <t>절묘한 책장</t>
   </si>
   <si>
     <t>building_精致的古董柜</t>
@@ -438,7 +444,7 @@
     <t>精緻的古董櫃</t>
   </si>
   <si>
-    <t>Exquisite Antique Cabinet</t>
+    <t>절묘한 골동품 선반</t>
   </si>
   <si>
     <t>building_唐三彩</t>
@@ -447,7 +453,7 @@
     <t>唐三彩</t>
   </si>
   <si>
-    <t>Trio-colored glazed pottery of the Tang Dynasty</t>
+    <t>당삼채</t>
   </si>
   <si>
     <t>building_冰鉴</t>
@@ -459,7 +465,7 @@
     <t>冰鑑</t>
   </si>
   <si>
-    <t>Ice Mirror</t>
+    <t>빙감</t>
   </si>
   <si>
     <t>building_书案</t>
@@ -471,7 +477,7 @@
     <t>書案</t>
   </si>
   <si>
-    <t>Book case</t>
+    <t>책장</t>
   </si>
   <si>
     <t>building_木椅</t>
@@ -480,7 +486,7 @@
     <t>木椅</t>
   </si>
   <si>
-    <t>Wooden chair</t>
+    <t>나무 의자</t>
   </si>
   <si>
     <t>building_橱柜</t>
@@ -492,7 +498,7 @@
     <t>櫥櫃</t>
   </si>
   <si>
-    <t>Cabinet</t>
+    <t>주방 선반</t>
   </si>
   <si>
     <t>building_杂物袋</t>
@@ -504,7 +510,7 @@
     <t>雜物袋</t>
   </si>
   <si>
-    <t>Debris bag</t>
+    <t>잡물대</t>
   </si>
   <si>
     <t>building_洗漱架</t>
@@ -513,7 +519,7 @@
     <t>洗漱架</t>
   </si>
   <si>
-    <t>Washstand</t>
+    <t>세면대</t>
   </si>
   <si>
     <t>building_不知名的青铜器</t>
@@ -525,7 +531,7 @@
     <t>不知名的青銅器</t>
   </si>
   <si>
-    <t>Unknown Bronze Ware</t>
+    <t>알 수 없는 청동기</t>
   </si>
   <si>
     <t>building_杂物架</t>
@@ -537,7 +543,7 @@
     <t>雜物架</t>
   </si>
   <si>
-    <t>Oddments rack</t>
+    <t>잡동사니 선반</t>
   </si>
   <si>
     <t>building_储物架</t>
@@ -549,7 +555,7 @@
     <t>儲物架</t>
   </si>
   <si>
-    <t>Storage rack</t>
+    <t>보관 선반</t>
   </si>
   <si>
     <t>building_储物柜</t>
@@ -561,7 +567,7 @@
     <t>儲物櫃</t>
   </si>
   <si>
-    <t>Lockers</t>
+    <t>보관함</t>
   </si>
   <si>
     <t>building_木桌</t>
@@ -570,7 +576,7 @@
     <t>木桌</t>
   </si>
   <si>
-    <t>Wooden table</t>
+    <t>나무 탁자</t>
   </si>
   <si>
     <t>building_木桶</t>
@@ -579,7 +585,7 @@
     <t>木桶</t>
   </si>
   <si>
-    <t>Wooden barrel</t>
+    <t>나무 통</t>
   </si>
   <si>
     <t>building_木雕</t>
@@ -588,7 +594,7 @@
     <t>木雕</t>
   </si>
   <si>
-    <t>woodcarving</t>
+    <t>나무 조각</t>
   </si>
   <si>
     <t>building_破损的竹椅</t>
@@ -600,7 +606,7 @@
     <t>破損的竹椅</t>
   </si>
   <si>
-    <t>Damaged Bamboo Chair</t>
+    <t>손상된 대나무 의자</t>
   </si>
   <si>
     <t>building_杂物堆</t>
@@ -612,7 +618,7 @@
     <t>雜物堆</t>
   </si>
   <si>
-    <t>Debris pile</t>
+    <t>잡물퇴</t>
   </si>
   <si>
     <t>building_破损的木板床</t>
@@ -624,7 +630,7 @@
     <t>破損的木板床</t>
   </si>
   <si>
-    <t>Damaged wooden bed</t>
+    <t>손상된 나무 침대</t>
   </si>
   <si>
     <t>building_破损的储物架</t>
@@ -636,7 +642,7 @@
     <t>破損的儲物架</t>
   </si>
   <si>
-    <t>Damaged storage rack</t>
+    <t>손상된 보관 선반</t>
   </si>
   <si>
     <t>building_破损的坛子</t>
@@ -648,7 +654,7 @@
     <t>破損的罈子</t>
   </si>
   <si>
-    <t>Broken Jar</t>
+    <t>손상된 항아리</t>
   </si>
   <si>
     <t>building_破损的长桌</t>
@@ -660,7 +666,7 @@
     <t>破損的長桌</t>
   </si>
   <si>
-    <t>Damaged Long Table</t>
+    <t>손상된 긴 테이블</t>
   </si>
   <si>
     <t>building_兵器架</t>
@@ -669,7 +675,7 @@
     <t>兵器架</t>
   </si>
   <si>
-    <t>Weapon rack</t>
+    <t>무기 선반</t>
   </si>
   <si>
     <t>building_残破的桌子</t>
@@ -681,7 +687,7 @@
     <t>殘破的桌子</t>
   </si>
   <si>
-    <t>Broken Table</t>
+    <t>부서진 탁자</t>
   </si>
   <si>
     <t>building_残破的窗棱</t>
@@ -693,7 +699,7 @@
     <t>殘破的窗稜</t>
   </si>
   <si>
-    <t>Broken Window Ledge</t>
+    <t>부서진 창문 선반</t>
   </si>
   <si>
     <t>building_小坛子</t>
@@ -705,7 +711,7 @@
     <t>小罈子</t>
   </si>
   <si>
-    <t>Small Jar</t>
+    <t>작은 항아리</t>
   </si>
   <si>
     <t>building_旗帜</t>
@@ -717,7 +723,7 @@
     <t>旗幟</t>
   </si>
   <si>
-    <t>Flag</t>
+    <t>깃발</t>
   </si>
   <si>
     <t>building_虎皮座椅</t>
@@ -726,7 +732,7 @@
     <t>虎皮座椅</t>
   </si>
   <si>
-    <t>Tiger leather seat</t>
+    <t>호피좌의</t>
   </si>
   <si>
     <t>building_长桌</t>
@@ -738,7 +744,7 @@
     <t>長桌</t>
   </si>
   <si>
-    <t>Long table</t>
+    <t>긴 탁자</t>
   </si>
   <si>
     <t>building_倒下的枯树干</t>
@@ -750,7 +756,7 @@
     <t>倒下的枯樹幹</t>
   </si>
   <si>
-    <t>Fallen dead tree trunks</t>
+    <t>쓰러진 죽은 나무 줄기</t>
   </si>
   <si>
     <t>building_破损的木桶</t>
@@ -762,7 +768,7 @@
     <t>破損的木桶</t>
   </si>
   <si>
-    <t>Damaged wooden bucket</t>
+    <t>손상된 나무 양동이</t>
   </si>
   <si>
     <t>building_破损的灶台</t>
@@ -774,7 +780,7 @@
     <t>破損的灶臺</t>
   </si>
   <si>
-    <t>Broken Stove</t>
+    <t>손상된 난로</t>
   </si>
   <si>
     <t>building_破损的小坛子</t>
@@ -786,7 +792,7 @@
     <t>破損的小罈子</t>
   </si>
   <si>
-    <t>Broken Small Jar</t>
+    <t>손상된 작은 항아리</t>
   </si>
   <si>
     <t>building_长木凳</t>
@@ -798,7 +804,7 @@
     <t>長木凳</t>
   </si>
   <si>
-    <t>Long wooden bench</t>
+    <t>긴 나무 의자</t>
   </si>
   <si>
     <t>building_杂物包裹</t>
@@ -810,7 +816,7 @@
     <t>雜物包裹</t>
   </si>
   <si>
-    <t>Sundry packages</t>
+    <t>잡물포과</t>
   </si>
   <si>
     <t>building_供台</t>
@@ -822,7 +828,7 @@
     <t>供臺</t>
   </si>
   <si>
-    <t>Altar</t>
+    <t>제단</t>
   </si>
   <si>
     <t>building_巨石</t>
@@ -831,7 +837,7 @@
     <t>巨石</t>
   </si>
   <si>
-    <t>Megalith</t>
+    <t>거석</t>
   </si>
   <si>
     <t>building_草垛</t>
@@ -840,7 +846,7 @@
     <t>草垛</t>
   </si>
   <si>
-    <t>Haystack</t>
+    <t>건초 더미</t>
   </si>
   <si>
     <t>building_栅栏</t>
@@ -852,7 +858,7 @@
     <t>柵欄</t>
   </si>
   <si>
-    <t>Fence</t>
+    <t>울타리</t>
   </si>
   <si>
     <t>building_木制长箱</t>
@@ -864,7 +870,7 @@
     <t>木製長箱</t>
   </si>
   <si>
-    <t>Wooden Long Box</t>
+    <t>긴 나무 상자</t>
   </si>
   <si>
     <t>building_桃树</t>
@@ -876,7 +882,7 @@
     <t>桃樹</t>
   </si>
   <si>
-    <t>Peach</t>
+    <t>복숭아</t>
   </si>
   <si>
     <t>building_石床</t>
@@ -885,7 +891,7 @@
     <t>石床</t>
   </si>
   <si>
-    <t>Stone bed</t>
+    <t>돌 침대</t>
   </si>
   <si>
     <t>building_屏风</t>
@@ -897,7 +903,7 @@
     <t>屏風</t>
   </si>
   <si>
-    <t>Screen</t>
+    <t>병풍</t>
   </si>
   <si>
     <t>building_花盆</t>
@@ -906,7 +912,7 @@
     <t>花盆</t>
   </si>
   <si>
-    <t>Flower pot</t>
+    <t>화분</t>
   </si>
   <si>
     <t>building_落地宫灯</t>
@@ -918,7 +924,7 @@
     <t>落地宮燈</t>
   </si>
   <si>
-    <t>Floor mounted palace lamp</t>
+    <t>낙지궁정</t>
   </si>
   <si>
     <t>building_圆桌</t>
@@ -930,7 +936,7 @@
     <t>圓桌</t>
   </si>
   <si>
-    <t>Round table</t>
+    <t>원형 탁자</t>
   </si>
   <si>
     <t>building_圆凳</t>
@@ -942,7 +948,7 @@
     <t>圓凳</t>
   </si>
   <si>
-    <t>Circular stool</t>
+    <t>원형 의자</t>
   </si>
   <si>
     <t>building_青花瓷花瓶</t>
@@ -951,7 +957,7 @@
     <t>青花瓷花瓶</t>
   </si>
   <si>
-    <t>Blue and white porcelain vase</t>
+    <t>청화자화병</t>
   </si>
   <si>
     <t>building_架格</t>
@@ -960,7 +966,7 @@
     <t>架格</t>
   </si>
   <si>
-    <t>Frame grid</t>
+    <t>격자</t>
   </si>
   <si>
     <t>building_花架</t>
@@ -969,7 +975,7 @@
     <t>花架</t>
   </si>
   <si>
-    <t>Flower rack</t>
+    <t>꽃대</t>
   </si>
   <si>
     <t>building_红珊瑚</t>
@@ -981,7 +987,7 @@
     <t>紅珊瑚</t>
   </si>
   <si>
-    <t>Red coral</t>
+    <t>홍산호</t>
   </si>
   <si>
     <t>building_冰块</t>
@@ -993,7 +999,7 @@
     <t>冰塊</t>
   </si>
   <si>
-    <t>Ice cubes</t>
+    <t>얼음 조각</t>
   </si>
   <si>
     <t>building_铁门</t>
@@ -1005,7 +1011,7 @@
     <t>鐵門</t>
   </si>
   <si>
-    <t>Iron Door</t>
+    <t>철문</t>
   </si>
   <si>
     <t>NoTranslate</t>
@@ -1020,7 +1026,7 @@
     <t>轅門</t>
   </si>
   <si>
-    <t>Gate</t>
+    <t>원문</t>
   </si>
   <si>
     <t>building_香炉</t>
@@ -1032,9 +1038,6 @@
     <t>香爐</t>
   </si>
   <si>
-    <t>Incense Burner</t>
-  </si>
-  <si>
     <t>building_拒马</t>
   </si>
   <si>
@@ -1044,9 +1047,6 @@
     <t>拒馬</t>
   </si>
   <si>
-    <t>Giant Horse</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -1249,377 +1249,101 @@
   </si>
   <si>
     <t>本门兵器紧缺，急需补充一批丁级兵器，请本门弟子从速办理。</t>
+  </si>
+  <si>
+    <t>향로</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>거마</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1647,494 +1371,67 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="68">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="15">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" xfId="16">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="17" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" xfId="17">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="18" applyFont="1" fillId="4" applyFill="1" borderId="6" applyBorder="1" xfId="18">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="19" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="19">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="20" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="20">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" xfId="21">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="22" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="22">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="23" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="23">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="24" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="24">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="25">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" applyBorder="1" xfId="26">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="11" applyFill="1" borderId="0" applyBorder="1" xfId="27">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="12" applyFill="1" borderId="0" applyBorder="1" xfId="28">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="13" applyFill="1" borderId="0" applyBorder="1" xfId="29">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="14" applyFill="1" borderId="0" applyBorder="1" xfId="30">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="15" applyFill="1" borderId="0" applyBorder="1" xfId="31">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="16" applyFill="1" borderId="0" applyBorder="1" xfId="32">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="17" applyFill="1" borderId="0" applyBorder="1" xfId="33">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="18" applyFill="1" borderId="0" applyBorder="1" xfId="34">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="19" applyFill="1" borderId="0" applyBorder="1" xfId="35">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="20" applyFill="1" borderId="0" applyBorder="1" xfId="36">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="21" applyFill="1" borderId="0" applyBorder="1" xfId="37">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="22" applyFill="1" borderId="0" applyBorder="1" xfId="38">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="23" applyFill="1" borderId="0" applyBorder="1" xfId="39">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="24" applyFill="1" borderId="0" applyBorder="1" xfId="40">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="25" applyFill="1" borderId="0" applyBorder="1" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="26" applyFill="1" borderId="0" applyBorder="1" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="27" applyFill="1" borderId="0" applyBorder="1" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="28" applyFill="1" borderId="0" applyBorder="1" xfId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="29" applyFill="1" borderId="0" applyBorder="1" xfId="45">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="30" applyFill="1" borderId="0" applyBorder="1" xfId="46">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="31" applyFill="1" borderId="0" applyBorder="1" xfId="47">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="25" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2147,6 +1444,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2404,2431 +1704,2431 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1" style="49"/>
-    <col min="2" max="2" width="19.75" customWidth="1" style="55"/>
-    <col min="3" max="3" width="34.75" customWidth="1" style="49"/>
-    <col min="4" max="4" width="23.625" customWidth="1" style="49"/>
-    <col min="5" max="5" width="30.375" customWidth="1" style="49"/>
-    <col min="6" max="6" width="56.875" customWidth="1" style="49"/>
-    <col min="7" max="16384" width="9" customWidth="1" style="56"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19.69921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" customWidth="1"/>
+    <col min="5" max="5" width="30.3984375" customWidth="1"/>
+    <col min="6" max="6" width="56.8984375" customWidth="1"/>
+    <col min="7" max="8" width="9" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="61"/>
-      <c r="B4" s="62">
-        <v>0</v>
-      </c>
-      <c r="C4" s="63" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62">
-        <v>0</v>
-      </c>
-      <c r="C5" s="63" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62">
-        <v>0</v>
-      </c>
-      <c r="C6" s="63" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62">
-        <v>0</v>
-      </c>
-      <c r="C7" s="63" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62">
-        <v>0</v>
-      </c>
-      <c r="C8" s="63" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62">
-        <v>0</v>
-      </c>
-      <c r="C9" s="63" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62">
-        <v>0</v>
-      </c>
-      <c r="C10" s="64" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62">
-        <v>0</v>
-      </c>
-      <c r="C11" s="64" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62">
-        <v>0</v>
-      </c>
-      <c r="C12" s="64" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62">
-        <v>0</v>
-      </c>
-      <c r="C13" s="64" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62">
-        <v>0</v>
-      </c>
-      <c r="C14" s="65" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62">
-        <v>0</v>
-      </c>
-      <c r="C15" s="64" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62">
-        <v>0</v>
-      </c>
-      <c r="C16" s="64" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="49" t="s">
+      <c r="F16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62">
-        <v>0</v>
-      </c>
-      <c r="C17" s="64" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="61" t="s">
+      <c r="E17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="49" t="s">
+      <c r="F17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="61"/>
-      <c r="B18" s="62">
-        <v>0</v>
-      </c>
-      <c r="C18" s="64" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62">
-        <v>0</v>
-      </c>
-      <c r="C19" s="64" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62">
-        <v>0</v>
-      </c>
-      <c r="C20" s="64" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62">
-        <v>0</v>
-      </c>
-      <c r="C21" s="64" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62">
-        <v>0</v>
-      </c>
-      <c r="C22" s="64" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="61"/>
-      <c r="B23" s="62">
-        <v>0</v>
-      </c>
-      <c r="C23" s="64" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62">
-        <v>0</v>
-      </c>
-      <c r="C24" s="64" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13">
+        <v>0</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62">
-        <v>0</v>
-      </c>
-      <c r="C25" s="64" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="61"/>
-      <c r="B26" s="62">
-        <v>0</v>
-      </c>
-      <c r="C26" s="64" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13">
+        <v>0</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="61"/>
-      <c r="B27" s="62">
-        <v>0</v>
-      </c>
-      <c r="C27" s="64" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62">
-        <v>0</v>
-      </c>
-      <c r="C28" s="64" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13">
+        <v>0</v>
+      </c>
+      <c r="C28" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="61"/>
-      <c r="B29" s="62">
-        <v>0</v>
-      </c>
-      <c r="C29" s="64" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13">
+        <v>0</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62">
-        <v>0</v>
-      </c>
-      <c r="C30" s="64" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62">
-        <v>0</v>
-      </c>
-      <c r="C31" s="64" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13">
+        <v>0</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="62">
-        <v>0</v>
-      </c>
-      <c r="C32" s="64" t="s">
+    <row r="32" spans="1:6">
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="49" t="s">
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="49" t="s">
+      <c r="F32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="62">
-        <v>0</v>
-      </c>
-      <c r="C33" s="64" t="s">
+    <row r="33" spans="2:6">
+      <c r="B33" s="13">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" s="62">
-        <v>0</v>
-      </c>
-      <c r="C34" s="64" t="s">
+    <row r="34" spans="2:6">
+      <c r="B34" s="13">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="49" t="s">
+      <c r="E34" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35">
-      <c r="B35" s="62">
-        <v>0</v>
-      </c>
-      <c r="C35" s="66" t="s">
+    <row r="35" spans="2:6">
+      <c r="B35" s="13">
+        <v>0</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="62">
-        <v>0</v>
-      </c>
-      <c r="C36" s="64" t="s">
+    <row r="36" spans="2:6">
+      <c r="B36" s="13">
+        <v>0</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" t="s">
         <v>127</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="37">
-      <c r="B37" s="62">
-        <v>0</v>
-      </c>
-      <c r="C37" s="64" t="s">
+    <row r="37" spans="2:6">
+      <c r="B37" s="13">
+        <v>0</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38">
-      <c r="B38" s="62">
-        <v>0</v>
-      </c>
-      <c r="C38" s="64" t="s">
+    <row r="38" spans="2:6">
+      <c r="B38" s="13">
+        <v>0</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" t="s">
         <v>135</v>
       </c>
-      <c r="F38" s="49" t="s">
+      <c r="F38" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="39">
-      <c r="B39" s="62">
-        <v>0</v>
-      </c>
-      <c r="C39" s="64" t="s">
+    <row r="39" spans="2:6">
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" t="s">
         <v>138</v>
       </c>
-      <c r="F39" s="49" t="s">
+      <c r="F39" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="40">
-      <c r="B40" s="62">
-        <v>0</v>
-      </c>
-      <c r="C40" s="64" t="s">
+    <row r="40" spans="2:6">
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="49" t="s">
+      <c r="E40" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="41">
-      <c r="B41" s="62">
-        <v>0</v>
-      </c>
-      <c r="C41" s="64" t="s">
+    <row r="41" spans="2:6">
+      <c r="B41" s="13">
+        <v>0</v>
+      </c>
+      <c r="C41" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" s="62">
-        <v>0</v>
-      </c>
-      <c r="C42" s="64" t="s">
+    <row r="42" spans="2:6">
+      <c r="B42" s="13">
+        <v>0</v>
+      </c>
+      <c r="C42" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="49" t="s">
+      <c r="E42" t="s">
         <v>149</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="43">
-      <c r="B43" s="62">
-        <v>0</v>
-      </c>
-      <c r="C43" s="64" t="s">
+    <row r="43" spans="2:6">
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="49" t="s">
+      <c r="E43" t="s">
         <v>153</v>
       </c>
-      <c r="F43" s="49" t="s">
+      <c r="F43" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44">
-      <c r="B44" s="62">
-        <v>0</v>
-      </c>
-      <c r="C44" s="64" t="s">
+    <row r="44" spans="2:6">
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" t="s">
         <v>157</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45">
-      <c r="B45" s="62">
-        <v>0</v>
-      </c>
-      <c r="C45" s="64" t="s">
+    <row r="45" spans="2:6">
+      <c r="B45" s="13">
+        <v>0</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E45" s="49" t="s">
+      <c r="E45" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="F45" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46">
-      <c r="B46" s="62">
-        <v>0</v>
-      </c>
-      <c r="C46" s="64" t="s">
+    <row r="46" spans="2:6">
+      <c r="B46" s="13">
+        <v>0</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="49" t="s">
+      <c r="E46" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47">
-      <c r="B47" s="62">
-        <v>0</v>
-      </c>
-      <c r="C47" s="64" t="s">
+    <row r="47" spans="2:6">
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="49" t="s">
+      <c r="E47" t="s">
         <v>168</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="62">
-        <v>0</v>
-      </c>
-      <c r="C48" s="64" t="s">
+    <row r="48" spans="2:6">
+      <c r="B48" s="13">
+        <v>0</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="49">
-      <c r="B49" s="62">
-        <v>0</v>
-      </c>
-      <c r="C49" s="64" t="s">
+    <row r="49" spans="2:6">
+      <c r="B49" s="13">
+        <v>0</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" t="s">
         <v>176</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" s="62">
-        <v>0</v>
-      </c>
-      <c r="C50" s="64" t="s">
+    <row r="50" spans="2:6">
+      <c r="B50" s="13">
+        <v>0</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="51">
-      <c r="B51" s="62">
-        <v>0</v>
-      </c>
-      <c r="C51" s="64" t="s">
+    <row r="51" spans="2:6">
+      <c r="B51" s="13">
+        <v>0</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="52">
-      <c r="B52" s="62">
-        <v>0</v>
-      </c>
-      <c r="C52" s="64" t="s">
+    <row r="52" spans="2:6">
+      <c r="B52" s="13">
+        <v>0</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="64" t="s">
+      <c r="D52" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" t="s">
         <v>185</v>
       </c>
-      <c r="F52" s="49" t="s">
+      <c r="F52" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="53">
-      <c r="B53" s="62">
-        <v>0</v>
-      </c>
-      <c r="C53" s="64" t="s">
+    <row r="53" spans="2:6">
+      <c r="B53" s="13">
+        <v>0</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" t="s">
         <v>189</v>
       </c>
-      <c r="F53" s="49" t="s">
+      <c r="F53" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="54">
-      <c r="B54" s="62">
-        <v>0</v>
-      </c>
-      <c r="C54" s="64" t="s">
+    <row r="54" spans="2:6">
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="E54" s="49" t="s">
+      <c r="E54" t="s">
         <v>193</v>
       </c>
-      <c r="F54" s="49" t="s">
+      <c r="F54" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="62">
-        <v>0</v>
-      </c>
-      <c r="C55" s="64" t="s">
+    <row r="55" spans="2:6">
+      <c r="B55" s="13">
+        <v>0</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" t="s">
         <v>197</v>
       </c>
-      <c r="F55" s="49" t="s">
+      <c r="F55" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="56">
-      <c r="B56" s="62">
-        <v>0</v>
-      </c>
-      <c r="C56" s="64" t="s">
+    <row r="56" spans="2:6">
+      <c r="B56" s="13">
+        <v>0</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E56" s="49" t="s">
+      <c r="E56" t="s">
         <v>201</v>
       </c>
-      <c r="F56" s="49" t="s">
+      <c r="F56" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="57">
-      <c r="B57" s="62">
-        <v>0</v>
-      </c>
-      <c r="C57" s="64" t="s">
+    <row r="57" spans="2:6">
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E57" s="49" t="s">
+      <c r="E57" t="s">
         <v>205</v>
       </c>
-      <c r="F57" s="49" t="s">
+      <c r="F57" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="58">
-      <c r="B58" s="62">
-        <v>0</v>
-      </c>
-      <c r="C58" s="64" t="s">
+    <row r="58" spans="2:6">
+      <c r="B58" s="13">
+        <v>0</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="64" t="s">
+      <c r="D58" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" t="s">
         <v>209</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="59">
-      <c r="B59" s="62">
-        <v>0</v>
-      </c>
-      <c r="C59" s="64" t="s">
+    <row r="59" spans="2:6">
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="64" t="s">
+      <c r="D59" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="E59" s="49" t="s">
+      <c r="E59" t="s">
         <v>212</v>
       </c>
-      <c r="F59" s="49" t="s">
+      <c r="F59" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="60">
-      <c r="B60" s="62">
-        <v>0</v>
-      </c>
-      <c r="C60" s="64" t="s">
+    <row r="60" spans="2:6">
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="64" t="s">
+      <c r="D60" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" t="s">
         <v>216</v>
       </c>
-      <c r="F60" s="49" t="s">
+      <c r="F60" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="61">
-      <c r="B61" s="62">
-        <v>0</v>
-      </c>
-      <c r="C61" s="64" t="s">
+    <row r="61" spans="2:6">
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" t="s">
         <v>220</v>
       </c>
-      <c r="F61" s="49" t="s">
+      <c r="F61" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="62">
-      <c r="B62" s="62">
-        <v>0</v>
-      </c>
-      <c r="C62" s="64" t="s">
+    <row r="62" spans="2:6">
+      <c r="B62" s="13">
+        <v>0</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" t="s">
         <v>224</v>
       </c>
-      <c r="F62" s="49" t="s">
+      <c r="F62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="63">
-      <c r="B63" s="62">
-        <v>0</v>
-      </c>
-      <c r="C63" s="64" t="s">
+    <row r="63" spans="2:6">
+      <c r="B63" s="13">
+        <v>0</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="D63" s="64" t="s">
+      <c r="D63" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="49" t="s">
+      <c r="E63" t="s">
         <v>228</v>
       </c>
-      <c r="F63" s="49" t="s">
+      <c r="F63" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64">
-      <c r="B64" s="62">
-        <v>0</v>
-      </c>
-      <c r="C64" s="64" t="s">
+    <row r="64" spans="2:6">
+      <c r="B64" s="13">
+        <v>0</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D64" s="64" t="s">
+      <c r="D64" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="49" t="s">
+      <c r="E64" t="s">
         <v>231</v>
       </c>
-      <c r="F64" s="49" t="s">
+      <c r="F64" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="65">
-      <c r="B65" s="62">
-        <v>0</v>
-      </c>
-      <c r="C65" s="64" t="s">
+    <row r="65" spans="2:6">
+      <c r="B65" s="13">
+        <v>0</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="49" t="s">
+      <c r="E65" t="s">
         <v>235</v>
       </c>
-      <c r="F65" s="49" t="s">
+      <c r="F65" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="66">
-      <c r="B66" s="62">
-        <v>0</v>
-      </c>
-      <c r="C66" s="63" t="s">
+    <row r="66" spans="2:6">
+      <c r="B66" s="13">
+        <v>0</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" t="s">
         <v>239</v>
       </c>
-      <c r="F66" s="49" t="s">
+      <c r="F66" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="67">
-      <c r="B67" s="62">
-        <v>0</v>
-      </c>
-      <c r="C67" s="63" t="s">
+    <row r="67" spans="2:6">
+      <c r="B67" s="13">
+        <v>0</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D67" s="63" t="s">
+      <c r="D67" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="E67" s="49" t="s">
+      <c r="E67" t="s">
         <v>243</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F67" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="68">
-      <c r="B68" s="62">
-        <v>0</v>
-      </c>
-      <c r="C68" s="63" t="s">
+    <row r="68" spans="2:6">
+      <c r="B68" s="13">
+        <v>0</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D68" s="63" t="s">
+      <c r="D68" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E68" s="49" t="s">
+      <c r="E68" t="s">
         <v>247</v>
       </c>
-      <c r="F68" s="49" t="s">
+      <c r="F68" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="69">
-      <c r="B69" s="62">
-        <v>0</v>
-      </c>
-      <c r="C69" s="63" t="s">
+    <row r="69" spans="2:6">
+      <c r="B69" s="13">
+        <v>0</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="D69" s="63" t="s">
+      <c r="D69" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E69" s="49" t="s">
+      <c r="E69" t="s">
         <v>251</v>
       </c>
-      <c r="F69" s="49" t="s">
+      <c r="F69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70">
-      <c r="B70" s="62">
-        <v>0</v>
-      </c>
-      <c r="C70" s="63" t="s">
+    <row r="70" spans="2:6">
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D70" s="63" t="s">
+      <c r="D70" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E70" t="s">
         <v>255</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="F70" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="71">
-      <c r="B71" s="62">
-        <v>0</v>
-      </c>
-      <c r="C71" s="63" t="s">
+    <row r="71" spans="2:6">
+      <c r="B71" s="13">
+        <v>0</v>
+      </c>
+      <c r="C71" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="D71" s="63" t="s">
+      <c r="D71" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E71" s="49" t="s">
+      <c r="E71" t="s">
         <v>259</v>
       </c>
-      <c r="F71" s="49" t="s">
+      <c r="F71" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="72">
-      <c r="B72" s="62">
-        <v>0</v>
-      </c>
-      <c r="C72" s="63" t="s">
+    <row r="72" spans="2:6">
+      <c r="B72" s="13">
+        <v>0</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="D72" s="63" t="s">
+      <c r="D72" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E72" t="s">
         <v>263</v>
       </c>
-      <c r="F72" s="49" t="s">
+      <c r="F72" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="73">
-      <c r="B73" s="62">
-        <v>0</v>
-      </c>
-      <c r="C73" s="63" t="s">
+    <row r="73" spans="2:6">
+      <c r="B73" s="13">
+        <v>0</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="63" t="s">
+      <c r="D73" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E73" s="49" t="s">
+      <c r="E73" t="s">
         <v>266</v>
       </c>
-      <c r="F73" s="49" t="s">
+      <c r="F73" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="74">
-      <c r="B74" s="62">
-        <v>0</v>
-      </c>
-      <c r="C74" s="63" t="s">
+    <row r="74" spans="2:6">
+      <c r="B74" s="13">
+        <v>0</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="63" t="s">
+      <c r="D74" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" t="s">
         <v>269</v>
       </c>
-      <c r="F74" s="49" t="s">
+      <c r="F74" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="75">
-      <c r="B75" s="62">
-        <v>0</v>
-      </c>
-      <c r="C75" s="63" t="s">
+    <row r="75" spans="2:6">
+      <c r="B75" s="13">
+        <v>0</v>
+      </c>
+      <c r="C75" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D75" s="63" t="s">
+      <c r="D75" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E75" s="49" t="s">
+      <c r="E75" t="s">
         <v>273</v>
       </c>
-      <c r="F75" s="49" t="s">
+      <c r="F75" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="76">
-      <c r="B76" s="62">
-        <v>0</v>
-      </c>
-      <c r="C76" s="63" t="s">
+    <row r="76" spans="2:6">
+      <c r="B76" s="13">
+        <v>0</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D76" s="63" t="s">
+      <c r="D76" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" t="s">
         <v>277</v>
       </c>
-      <c r="F76" s="49" t="s">
+      <c r="F76" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="77">
-      <c r="B77" s="62">
-        <v>0</v>
-      </c>
-      <c r="C77" s="63" t="s">
+    <row r="77" spans="2:6">
+      <c r="B77" s="13">
+        <v>0</v>
+      </c>
+      <c r="C77" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="D77" s="63" t="s">
+      <c r="D77" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E77" s="49" t="s">
+      <c r="E77" t="s">
         <v>281</v>
       </c>
-      <c r="F77" s="49" t="s">
+      <c r="F77" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="78">
-      <c r="B78" s="62">
-        <v>0</v>
-      </c>
-      <c r="C78" s="65" t="s">
+    <row r="78" spans="2:6">
+      <c r="B78" s="13">
+        <v>0</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D78" s="65" t="s">
+      <c r="D78" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="E78" s="49" t="s">
+      <c r="E78" t="s">
         <v>284</v>
       </c>
-      <c r="F78" s="49" t="s">
+      <c r="F78" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="79">
-      <c r="B79" s="62">
-        <v>0</v>
-      </c>
-      <c r="C79" s="63" t="s">
+    <row r="79" spans="2:6">
+      <c r="B79" s="13">
+        <v>0</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="D79" s="63" t="s">
+      <c r="D79" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E79" s="49" t="s">
+      <c r="E79" t="s">
         <v>288</v>
       </c>
-      <c r="F79" s="49" t="s">
+      <c r="F79" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="80">
-      <c r="B80" s="62">
-        <v>0</v>
-      </c>
-      <c r="C80" s="63" t="s">
+    <row r="80" spans="2:6">
+      <c r="B80" s="13">
+        <v>0</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="D80" s="63" t="s">
+      <c r="D80" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E80" s="49" t="s">
+      <c r="E80" t="s">
         <v>291</v>
       </c>
-      <c r="F80" s="49" t="s">
+      <c r="F80" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="81">
-      <c r="B81" s="62">
-        <v>0</v>
-      </c>
-      <c r="C81" s="63" t="s">
+    <row r="81" spans="1:6">
+      <c r="B81" s="13">
+        <v>0</v>
+      </c>
+      <c r="C81" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D81" s="63" t="s">
+      <c r="D81" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="E81" s="49" t="s">
+      <c r="E81" t="s">
         <v>295</v>
       </c>
-      <c r="F81" s="49" t="s">
+      <c r="F81" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="82">
-      <c r="B82" s="62">
-        <v>0</v>
-      </c>
-      <c r="C82" s="63" t="s">
+    <row r="82" spans="1:6">
+      <c r="B82" s="13">
+        <v>0</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D82" s="63" t="s">
+      <c r="D82" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="E82" s="49" t="s">
+      <c r="E82" t="s">
         <v>299</v>
       </c>
-      <c r="F82" s="49" t="s">
+      <c r="F82" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="83">
-      <c r="B83" s="62">
-        <v>0</v>
-      </c>
-      <c r="C83" s="63" t="s">
+    <row r="83" spans="1:6">
+      <c r="B83" s="13">
+        <v>0</v>
+      </c>
+      <c r="C83" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D83" s="63" t="s">
+      <c r="D83" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="E83" s="49" t="s">
+      <c r="E83" t="s">
         <v>303</v>
       </c>
-      <c r="F83" s="49" t="s">
+      <c r="F83" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="84">
-      <c r="B84" s="62">
-        <v>0</v>
-      </c>
-      <c r="C84" s="63" t="s">
+    <row r="84" spans="1:6">
+      <c r="B84" s="13">
+        <v>0</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="D84" s="63" t="s">
+      <c r="D84" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="E84" s="49" t="s">
+      <c r="E84" t="s">
         <v>306</v>
       </c>
-      <c r="F84" s="49" t="s">
+      <c r="F84" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="85">
-      <c r="B85" s="62">
-        <v>0</v>
-      </c>
-      <c r="C85" s="63" t="s">
+    <row r="85" spans="1:6">
+      <c r="B85" s="13">
+        <v>0</v>
+      </c>
+      <c r="C85" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="D85" s="63" t="s">
+      <c r="D85" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E85" s="49" t="s">
+      <c r="E85" t="s">
         <v>309</v>
       </c>
-      <c r="F85" s="49" t="s">
+      <c r="F85" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="86">
-      <c r="B86" s="62">
-        <v>0</v>
-      </c>
-      <c r="C86" s="63" t="s">
+    <row r="86" spans="1:6">
+      <c r="B86" s="13">
+        <v>0</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="D86" s="63" t="s">
+      <c r="D86" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="49" t="s">
+      <c r="E86" t="s">
         <v>312</v>
       </c>
-      <c r="F86" s="49" t="s">
+      <c r="F86" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="87">
-      <c r="B87" s="62">
-        <v>0</v>
-      </c>
-      <c r="C87" s="63" t="s">
+    <row r="87" spans="1:6">
+      <c r="B87" s="13">
+        <v>0</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="D87" s="63" t="s">
+      <c r="D87" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E87" s="49" t="s">
+      <c r="E87" t="s">
         <v>316</v>
       </c>
-      <c r="F87" s="49" t="s">
+      <c r="F87" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="88">
-      <c r="B88" s="62">
-        <v>0</v>
-      </c>
-      <c r="C88" s="63" t="s">
+    <row r="88" spans="1:6">
+      <c r="B88" s="13">
+        <v>0</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="D88" s="63" t="s">
+      <c r="D88" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="E88" s="49" t="s">
+      <c r="E88" t="s">
         <v>320</v>
       </c>
-      <c r="F88" s="49" t="s">
+      <c r="F88" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="89">
-      <c r="B89" s="62">
-        <v>0</v>
-      </c>
-      <c r="C89" s="63" t="s">
+    <row r="89" spans="1:6">
+      <c r="B89" s="13">
+        <v>0</v>
+      </c>
+      <c r="C89" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="D89" s="63" t="s">
+      <c r="D89" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E89" t="s">
         <v>324</v>
       </c>
-      <c r="F89" s="49" t="s">
+      <c r="F89" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="49" t="s">
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
         <v>326</v>
       </c>
-      <c r="B90" s="62">
-        <v>0</v>
-      </c>
-      <c r="C90" s="63" t="s">
+      <c r="B90" s="13">
+        <v>0</v>
+      </c>
+      <c r="C90" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D90" s="63" t="s">
+      <c r="D90" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="E90" s="49" t="s">
+      <c r="E90" t="s">
         <v>329</v>
       </c>
-      <c r="F90" s="49" t="s">
+      <c r="F90" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="91">
-      <c r="B91" s="62">
-        <v>0</v>
-      </c>
-      <c r="C91" s="63" t="s">
+    <row r="91" spans="1:6">
+      <c r="B91" s="13">
+        <v>0</v>
+      </c>
+      <c r="C91" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D91" s="63" t="s">
+      <c r="D91" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="E91" s="49" t="s">
+      <c r="E91" t="s">
         <v>333</v>
       </c>
-      <c r="F91" s="49" t="s">
+      <c r="F91" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="B92" s="13">
+        <v>0</v>
+      </c>
+      <c r="C92" s="14" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="62">
-        <v>0</v>
-      </c>
-      <c r="C92" s="63" t="s">
+      <c r="D92" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="D92" s="63" t="s">
+      <c r="E92" t="s">
         <v>336</v>
       </c>
-      <c r="E92" s="49" t="s">
+      <c r="F92" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
         <v>337</v>
       </c>
-      <c r="F92" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="B93" s="62"/>
+      <c r="B93" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C1:C31">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D$1:D$1048576">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="3" width="9" customWidth="1" style="49"/>
-    <col min="6" max="6" width="19.875" customWidth="1" style="49"/>
-    <col min="7" max="7" width="23.75" customWidth="1" style="49"/>
-    <col min="8" max="8" width="24.875" customWidth="1" style="49"/>
-    <col min="9" max="9" width="76.875" customWidth="1" style="49"/>
+    <col min="1" max="3" width="9" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" customWidth="1"/>
+    <col min="7" max="7" width="23.69921875" customWidth="1"/>
+    <col min="8" max="8" width="24.8984375" customWidth="1"/>
+    <col min="9" max="9" width="76.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:F34" si="0">"BH_Title_"&amp;B1</f>
+        <v>BH_Title_1010016</v>
+      </c>
+      <c r="G1" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="H1" t="str">
+        <f t="shared" ref="H1:H34" si="1">"BH_Desc_"&amp;B1</f>
+        <v>BH_Desc_1010016</v>
+      </c>
+      <c r="I1" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="49" t="str">
-        <f ref="F1:F10" t="shared" si="0">"BH_Title_"&amp;B1</f>
-        <v>BH_Title_1010016</v>
-      </c>
-      <c r="G1" s="49" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H1" s="49" t="str">
-        <f ref="H1:H10" t="shared" si="1">"BH_Desc_"&amp;B1</f>
-        <v>BH_Desc_1010016</v>
-      </c>
-      <c r="I1" s="49" t="s">
+      <c r="C2" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>345</v>
-      </c>
-      <c r="F2" s="49" t="str">
+      <c r="F2" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_1010017</v>
       </c>
-      <c r="G2" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="H2" s="49" t="str">
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_1010017</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" s="49" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_1010021</v>
       </c>
-      <c r="G3" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" s="49" t="str">
+      <c r="G3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H3" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_1010021</v>
       </c>
-      <c r="I3" s="49" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>351</v>
-      </c>
-      <c r="F4" s="49" t="str">
+      <c r="I3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_1010025</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="H4" s="49" t="str">
+      <c r="G4" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_1010025</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="F5" s="49" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_1010026</v>
       </c>
-      <c r="G5" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="H5" s="49" t="str">
+      <c r="G5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_1010026</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="F6" s="49" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_30000057</v>
       </c>
-      <c r="G6" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" s="49" t="str">
+      <c r="G6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_30000057</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>362</v>
-      </c>
-      <c r="F7" s="49" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_30000058</v>
       </c>
-      <c r="G7" s="49" t="s">
-        <v>363</v>
-      </c>
-      <c r="H7" s="49" t="str">
+      <c r="G7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_30000058</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>366</v>
-      </c>
-      <c r="F8" s="49" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_30000059</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>367</v>
-      </c>
-      <c r="H8" s="49" t="str">
+      <c r="G8" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_30000059</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51" t="s">
-        <v>369</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="F9" s="49" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_30000060</v>
       </c>
-      <c r="G9" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="H9" s="49" t="str">
+      <c r="G9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_30000060</v>
       </c>
-      <c r="I9" s="49" t="s">
+      <c r="I9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="F10" s="49" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>BH_Title_30000061</v>
       </c>
-      <c r="G10" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="H10" s="49" t="str">
+      <c r="G10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H10" t="str">
         <f t="shared" si="1"/>
         <v>BH_Desc_30000061</v>
       </c>
-      <c r="I10" s="49" t="s">
+      <c r="I10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>3200023</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_3200023</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_3200023</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>3200024</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_3200024</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_3200024</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1">
+        <v>3200025</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_3200025</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_3200025</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>3200026</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_3200026</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_3200026</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>3200027</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_3200027</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_3200027</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="1">
+        <v>3200031</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_3200031</v>
+      </c>
+      <c r="G16" t="s">
+        <v>369</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_3200031</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="1">
+        <v>3200032</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50">
-        <v>3200023</v>
-      </c>
-      <c r="C11" s="50" t="s">
-        <v>375</v>
-      </c>
-      <c r="F11" s="49" t="str">
-        <f ref="F11:F17" t="shared" si="2">"BH_Title_"&amp;B11</f>
-        <v>BH_Title_3200023</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="H11" s="49" t="str">
-        <f ref="H11:H17" t="shared" si="3">"BH_Desc_"&amp;B11</f>
-        <v>BH_Desc_3200023</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50">
-        <v>3200024</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="F12" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>BH_Title_3200024</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="H12" s="49" t="str">
-        <f t="shared" si="3"/>
-        <v>BH_Desc_3200024</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50">
-        <v>3200025</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>378</v>
-      </c>
-      <c r="F13" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>BH_Title_3200025</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="H13" s="49" t="str">
-        <f t="shared" si="3"/>
-        <v>BH_Desc_3200025</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50">
-        <v>3200026</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="F14" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>BH_Title_3200026</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="H14" s="49" t="str">
-        <f t="shared" si="3"/>
-        <v>BH_Desc_3200026</v>
-      </c>
-      <c r="I14" s="54" t="s">
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_3200032</v>
+      </c>
+      <c r="G17" t="s">
+        <v>369</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_3200032</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50">
-        <v>3200027</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>BH_Title_3200027</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="H15" s="49" t="str">
-        <f t="shared" si="3"/>
-        <v>BH_Desc_3200027</v>
-      </c>
-      <c r="I15" s="54" t="s">
+    <row r="18" spans="2:9">
+      <c r="B18" s="4">
+        <v>5800042</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="50">
-        <v>3200031</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="F16" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>BH_Title_3200031</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="H16" s="49" t="str">
-        <f t="shared" si="3"/>
-        <v>BH_Desc_3200031</v>
-      </c>
-      <c r="I16" s="54" t="s">
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800042</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="50">
-        <v>3200032</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>374</v>
-      </c>
-      <c r="F17" s="49" t="str">
-        <f t="shared" si="2"/>
-        <v>BH_Title_3200032</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="H17" s="49" t="str">
-        <f t="shared" si="3"/>
-        <v>BH_Desc_3200032</v>
-      </c>
-      <c r="I17" s="54" t="s">
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800042</v>
+      </c>
+      <c r="I18" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="4">
+        <v>5800043</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800043</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="53">
-        <v>5800042</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="F18" s="49" t="str">
-        <f ref="F18:F34" t="shared" si="4">"BH_Title_"&amp;B18</f>
-        <v>BH_Title_5800042</v>
-      </c>
-      <c r="G18" s="52" t="s">
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800043</v>
+      </c>
+      <c r="I19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="4">
+        <v>5800044</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H18" s="49" t="str">
-        <f ref="H18:H34" t="shared" si="5">"BH_Desc_"&amp;B18</f>
-        <v>BH_Desc_5800042</v>
-      </c>
-      <c r="I18" s="49" t="s">
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800044</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800044</v>
+      </c>
+      <c r="I20" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="53">
-        <v>5800043</v>
-      </c>
-      <c r="C19" s="51" t="s">
+    <row r="21" spans="2:9">
+      <c r="B21" s="4">
+        <v>5800045</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800045</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800045</v>
+      </c>
+      <c r="I21" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="4">
+        <v>5800046</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F19" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_5800043</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="H19" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_5800043</v>
-      </c>
-      <c r="I19" s="49" t="s">
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800046</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800046</v>
+      </c>
+      <c r="I22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4">
+        <v>5800047</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800047</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800047</v>
+      </c>
+      <c r="I23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="4">
+        <v>5800048</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800048</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800048</v>
+      </c>
+      <c r="I24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="4">
+        <v>5800049</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800049</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800049</v>
+      </c>
+      <c r="I25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="4">
+        <v>5800050</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="53">
-        <v>5800044</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="F20" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_5800044</v>
-      </c>
-      <c r="G20" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="H20" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_5800044</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="53">
-        <v>5800045</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="F21" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_5800045</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="H21" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_5800045</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="53">
-        <v>5800046</v>
-      </c>
-      <c r="C22" s="51" t="s">
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_5800050</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="F22" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_5800046</v>
-      </c>
-      <c r="G22" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="H22" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_5800046</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="53">
-        <v>5800047</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="F23" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_5800047</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="H23" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_5800047</v>
-      </c>
-      <c r="I23" s="49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="53">
-        <v>5800048</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="F24" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_5800048</v>
-      </c>
-      <c r="G24" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="H24" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_5800048</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="53">
-        <v>5800049</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>390</v>
-      </c>
-      <c r="F25" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_5800049</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="H25" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_5800049</v>
-      </c>
-      <c r="I25" s="49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="53">
-        <v>5800050</v>
-      </c>
-      <c r="C26" s="51" t="s">
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_5800050</v>
+      </c>
+      <c r="I26" t="s">
         <v>391</v>
       </c>
-      <c r="F26" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_5800050</v>
-      </c>
-      <c r="G26" s="52" t="s">
+    </row>
+    <row r="27" spans="2:9" ht="28.8" customHeight="1">
+      <c r="B27" s="1">
+        <v>6500032</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H26" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_5800050</v>
-      </c>
-      <c r="I26" s="49" t="s">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_6500032</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="27" ht="27">
-      <c r="B27" s="50">
-        <v>6500032</v>
-      </c>
-      <c r="C27" s="51" t="s">
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_6500032</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="F27" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_6500032</v>
-      </c>
-      <c r="G27" s="54" t="s">
+    </row>
+    <row r="28" spans="2:9" ht="28.8" customHeight="1">
+      <c r="B28" s="1">
+        <v>6500033</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H27" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_6500032</v>
-      </c>
-      <c r="I27" s="54" t="s">
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_6500033</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_6500033</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="28" ht="27">
-      <c r="B28" s="50">
-        <v>6500033</v>
-      </c>
-      <c r="C28" s="51" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" s="1">
+        <v>6500034</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_6500034</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_6500034</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="F28" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_6500033</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="H28" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_6500033</v>
-      </c>
-      <c r="I28" s="54" t="s">
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="4">
+        <v>7100040</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="50">
-        <v>6500034</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>397</v>
-      </c>
-      <c r="F29" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_6500034</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>395</v>
-      </c>
-      <c r="H29" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_6500034</v>
-      </c>
-      <c r="I29" s="54" t="s">
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_7100040</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_7100040</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="30">
-      <c r="B30" s="53">
-        <v>7100040</v>
-      </c>
-      <c r="C30" s="52" t="s">
+    <row r="31" spans="2:9">
+      <c r="B31" s="4">
+        <v>7100041</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_7100041</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_7100041</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="F30" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_7100040</v>
-      </c>
-      <c r="G30" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="H30" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_7100040</v>
-      </c>
-      <c r="I30" s="54" t="s">
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="4">
+        <v>7100042</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="53">
-        <v>7100041</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="F31" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_7100041</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="H31" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_7100041</v>
-      </c>
-      <c r="I31" s="54" t="s">
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_7100042</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_7100042</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="32">
-      <c r="B32" s="53">
-        <v>7100042</v>
-      </c>
-      <c r="C32" s="52" t="s">
+    <row r="33" spans="2:9">
+      <c r="B33" s="4">
+        <v>7100043</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_7100043</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_7100043</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F32" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_7100042</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="H32" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_7100042</v>
-      </c>
-      <c r="I32" s="54" t="s">
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="4">
+        <v>7100044</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>BH_Title_7100044</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>BH_Desc_7100044</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="33">
-      <c r="B33" s="53">
-        <v>7100043</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="F33" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_7100043</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="H33" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_7100043</v>
-      </c>
-      <c r="I33" s="54" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="53">
-        <v>7100044</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="F34" s="49" t="str">
-        <f t="shared" si="4"/>
-        <v>BH_Title_7100044</v>
-      </c>
-      <c r="G34" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="H34" s="49" t="str">
-        <f t="shared" si="5"/>
-        <v>BH_Desc_7100044</v>
-      </c>
-      <c r="I34" s="54" t="s">
-        <v>406</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>